--- a/raw-data/RSV_attribute_hierarchy.xlsx
+++ b/raw-data/RSV_attribute_hierarchy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z2211982/github/RSVcorrelates/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBB7C42-9D2D-CB41-A301-4A0FD57D30FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADEBAAA-A78B-C848-BC0E-4AE584BAA12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="29400" windowHeight="16940" xr2:uid="{E5577812-52DB-7549-9224-56C8E4FDF043}"/>
+    <workbookView xWindow="6700" yWindow="1340" windowWidth="39280" windowHeight="20860" xr2:uid="{E5577812-52DB-7549-9224-56C8E4FDF043}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="181">
   <si>
     <t>level_1_attribute</t>
   </si>
@@ -314,9 +314,6 @@
     <t>No NCT number</t>
   </si>
   <si>
-    <t>Stydy Type</t>
-  </si>
-  <si>
     <t>under 1 year</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
     <t>Product Details</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -539,9 +533,6 @@
     <t>No NCT number:Not RCT</t>
   </si>
   <si>
-    <t>No NCT number:RCT</t>
-  </si>
-  <si>
     <t>Trial Type</t>
   </si>
   <si>
@@ -551,13 +542,46 @@
     <t>Randomisation not reported (with NCT number)</t>
   </si>
   <si>
-    <t>RCT (no NCT number)</t>
-  </si>
-  <si>
     <t>Non-RCT (no NCT number)</t>
   </si>
   <si>
     <t>Randomisation not reported (no NCT number)</t>
+  </si>
+  <si>
+    <t>Other2</t>
+  </si>
+  <si>
+    <t>NCT number:Possible RCT</t>
+  </si>
+  <si>
+    <t>possible RCT (with NCT number)</t>
+  </si>
+  <si>
+    <t>possible RCT (no NCT number)</t>
+  </si>
+  <si>
+    <t>No NCT number:Possible RCT</t>
+  </si>
+  <si>
+    <t>Approval Status</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Not Approved</t>
+  </si>
+  <si>
+    <t>Approval Unclassified</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>not approved</t>
+  </si>
+  <si>
+    <t>approval unknown</t>
   </si>
 </sst>
 </file>
@@ -942,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B74C7C1-39D6-4543-AF62-37F03D7DCD25}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +997,7 @@
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -985,7 +1009,7 @@
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -997,7 +1021,7 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1048,10 +1072,10 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1060,10 +1084,10 @@
         <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -1072,10 +1096,10 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1159,7 +1183,7 @@
         <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1168,10 +1192,10 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -1180,10 +1204,10 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -1192,10 +1216,10 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -1204,10 +1228,10 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -1228,7 +1252,7 @@
         <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>46</v>
@@ -1267,7 +1291,7 @@
         <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1373,7 +1397,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="I33" s="2"/>
@@ -1855,7 +1879,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -1865,12 +1889,12 @@
         <v>AstraZeneca-Sanofi</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -1880,12 +1904,12 @@
         <v>MedImmune</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -1895,41 +1919,41 @@
         <v>Merck</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C110" si="0">MID(D68,FIND(":",D68)+1,1000)</f>
+        <f t="shared" ref="C68:C99" si="0">MID(D68,FIND(":",D68)+1,1000)</f>
         <v>MedImmune</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -1939,12 +1963,12 @@
         <v>NIAID/NIH</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
@@ -1954,12 +1978,12 @@
         <v>NIAID/NIH/MedImmune</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1969,12 +1993,12 @@
         <v>NIH/NIAID/VRC</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
@@ -1984,12 +2008,12 @@
         <v>Sanofi</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
@@ -1999,12 +2023,12 @@
         <v>Sanofi/LID/NIAID/NIH</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -2014,596 +2038,640 @@
         <v>Sanofi/NIAID/NIH</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" t="str">
-        <f>MID(D76,FIND(":",D76)+1,1000)</f>
+        <f t="shared" ref="C76:C94" si="1">MID(D76,FIND(":",D76)+1,1000)</f>
         <v>GSK</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C77" t="str">
-        <f>MID(D77,FIND(":",D77)+1,1000)</f>
+        <f t="shared" si="1"/>
         <v>MedImmune</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" t="str">
-        <f>MID(D78,FIND(":",D78)+1,1000)</f>
+        <f t="shared" si="1"/>
         <v>Mucosis</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" t="str">
-        <f>MID(D79,FIND(":",D79)+1,1000)</f>
+        <f t="shared" si="1"/>
         <v>NIH</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" t="str">
-        <f>MID(D80,FIND(":",D80)+1,1000)</f>
+        <f t="shared" si="1"/>
         <v>Novavax</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" t="str">
-        <f>MID(D81,FIND(":",D81)+1,1000)</f>
+        <f t="shared" si="1"/>
         <v>Pfizer</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>Sanofi</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" t="str">
-        <f>MID(D82,FIND(":",D82)+1,1000)</f>
-        <v>Sanofi</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C83" t="str">
-        <f>MID(D83,FIND(":",D83)+1,1000)</f>
-        <v>Bavarian Nordic</v>
+        <f>MID(D83,FIND(":",D83)+1,1000)&amp;"2"</f>
+        <v>GSK2</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C84" t="str">
         <f>MID(D84,FIND(":",D84)+1,1000)</f>
-        <v>Blue Lake Biotechnology Inc</v>
+        <v>Lederle Praxis Biologicals</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C85" t="str">
-        <f>MID(D85,FIND(":",D85)+1,1000)</f>
-        <v>GSK</v>
+        <f>MID(D85,FIND(":",D85)+1,1000)&amp;"2"</f>
+        <v>MedImmune2</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
         <v>157</v>
       </c>
-      <c r="B86" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" t="str">
-        <f>MID(D86,FIND(":",D86)+1,1000)</f>
-        <v>Janssen</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" t="s">
-        <v>160</v>
+        <v>100</v>
+      </c>
+      <c r="C87" t="str">
+        <f>MID(D87,FIND(":",D87)+1,1000)</f>
+        <v>NIH/NIAID/VRC</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="str">
+        <f>MID(D88,FIND(":",D88)+1,1000)</f>
+        <v>NIH/Wyeth Vaccines</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="str">
+        <f>MID(D89,FIND(":",D89)+1,1000)</f>
+        <v>Praxis Biologics</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="str">
+        <f>MID(D90,FIND(":",D90)+1,1000)&amp;"2"</f>
+        <v>Sanofi2</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>Bavarian Nordic</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>Blue Lake Biotechnology Inc</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>GSK</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>Janssen</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="str">
+        <f>MID(D96,FIND(":",D96)+1,1000)&amp;"2"</f>
+        <v>GSK2</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="str">
+        <f>MID(D97,FIND(":",D97)+1,1000)&amp;"2"</f>
+        <v>Janssen2</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
         <v>157</v>
       </c>
-      <c r="B88" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" t="str">
+      <c r="D98" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="str">
         <f t="shared" si="0"/>
         <v>Moderna</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" t="str">
-        <f>MID(D89,FIND(":",D89)+1,1000)</f>
-        <v>Virometix</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="str">
-        <f>MID(D90,FIND(":",D90)+1,1000)</f>
-        <v>Janssen</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" t="str">
-        <f>MID(D91,FIND(":",D91)+1,1000)</f>
-        <v>GSK</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92" t="str">
-        <f>MID(D92,FIND(":",D92)+1,1000)</f>
-        <v>Lederle Praxis Biologicals</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" t="str">
-        <f>MID(D93,FIND(":",D93)+1,1000)</f>
-        <v>MedImmune</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" t="s">
-        <v>159</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" t="str">
-        <f>MID(D95,FIND(":",D95)+1,1000)</f>
-        <v>NIH/NIAID/VRC</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96" t="str">
-        <f>MID(D96,FIND(":",D96)+1,1000)</f>
-        <v>NIH/Wyeth Vaccines</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C97" t="str">
-        <f>MID(D97,FIND(":",D97)+1,1000)</f>
-        <v>Praxis Biologics</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B98" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" t="str">
-        <f>MID(D98,FIND(":",D98)+1,1000)</f>
-        <v>Sanofi</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B99" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" t="str">
-        <f>MID(D99,FIND(":",D99)+1,1000)</f>
-        <v>Wyeth-Lederle Vaccine and Pediatrics</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C100" t="str">
         <f>MID(D100,FIND(":",D100)+1,1000)</f>
-        <v>GSK</v>
+        <v>Merck</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C101" t="str">
         <f>MID(D101,FIND(":",D101)+1,1000)</f>
-        <v>Janssen</v>
+        <v>Virometix</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
-      </c>
-      <c r="C102" t="s">
-        <v>159</v>
+        <v>88</v>
+      </c>
+      <c r="C102" t="str">
+        <f>MID(D102,FIND(":",D102)+1,1000)</f>
+        <v>Janssen</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C103" t="str">
-        <f>MID(D103,FIND(":",D103)+1,1000)</f>
-        <v>Intravacc</v>
+        <f t="shared" ref="C103" si="2">MID(D103,FIND(":",D103)+1,1000)</f>
+        <v>Wyeth-Lederle Vaccine and Pediatrics</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" t="s">
         <v>157</v>
       </c>
-      <c r="B104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" t="str">
-        <f>MID(D104,FIND(":",D104)+1,1000)</f>
-        <v>Merck</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" t="s">
-        <v>159</v>
+        <v>76</v>
+      </c>
+      <c r="C105" t="str">
+        <f>MID(D105,FIND(":",D105)+1,1000)</f>
+        <v>Pfizer</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" t="s">
         <v>157</v>
-      </c>
-      <c r="B106" t="s">
-        <v>75</v>
       </c>
       <c r="C106" t="str">
         <f>MID(D106,FIND(":",D106)+1,1000)</f>
-        <v>NIAID</v>
+        <v>Intravacc</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" t="s">
         <v>157</v>
-      </c>
-      <c r="B107" t="s">
-        <v>75</v>
       </c>
       <c r="C107" t="str">
         <f>MID(D107,FIND(":",D107)+1,1000)</f>
-        <v>NIH/Wyeth Vaccines</v>
+        <v>Merck</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" t="s">
         <v>157</v>
       </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" t="s">
         <v>157</v>
-      </c>
-      <c r="B109" t="s">
-        <v>76</v>
       </c>
       <c r="C109" t="str">
         <f>MID(D109,FIND(":",D109)+1,1000)</f>
-        <v>Pfizer</v>
+        <v>NIAID</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" t="s">
         <v>157</v>
       </c>
-      <c r="B110" t="s">
-        <v>77</v>
-      </c>
       <c r="C110" t="str">
-        <f t="shared" si="0"/>
-        <v>Merck</v>
+        <f>MID(D110,FIND(":",D110)+1,1000)</f>
+        <v>NIH/Wyeth Vaccines</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" t="s">
         <v>157</v>
       </c>
-      <c r="B111" t="s">
-        <v>158</v>
-      </c>
       <c r="C111" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B114" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" t="s">
         <v>167</v>
       </c>
-      <c r="B116" t="s">
-        <v>172</v>
-      </c>
       <c r="D116" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>164</v>
+      </c>
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118" t="s">
+        <v>175</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" t="s">
+        <v>176</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/raw-data/RSV_attribute_hierarchy.xlsx
+++ b/raw-data/RSV_attribute_hierarchy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z2211982/github/RSVcorrelates/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADEBAAA-A78B-C848-BC0E-4AE584BAA12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E62C5DF-CD69-E041-87AE-10A72CA89D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="1340" windowWidth="39280" windowHeight="20860" xr2:uid="{E5577812-52DB-7549-9224-56C8E4FDF043}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="204">
   <si>
     <t>level_1_attribute</t>
   </si>
@@ -563,9 +563,6 @@
     <t>No NCT number:Possible RCT</t>
   </si>
   <si>
-    <t>Approval Status</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
@@ -582,6 +579,78 @@
   </si>
   <si>
     <t>approval unknown</t>
+  </si>
+  <si>
+    <t>combination vaccine:not approved</t>
+  </si>
+  <si>
+    <t>formalin inactivated:approval unknown</t>
+  </si>
+  <si>
+    <t>live-attenuated:approval unknown</t>
+  </si>
+  <si>
+    <t>live-attenuated:not approved</t>
+  </si>
+  <si>
+    <t>monoclonal antibody:approval unknown</t>
+  </si>
+  <si>
+    <t>monoclonal antibody:approved</t>
+  </si>
+  <si>
+    <t>monoclonal antibody:not approved</t>
+  </si>
+  <si>
+    <t>mRNA:approval unknown</t>
+  </si>
+  <si>
+    <t>mRNA:approved</t>
+  </si>
+  <si>
+    <t>NA:approval unknown</t>
+  </si>
+  <si>
+    <t>protein subunit:approval unknown</t>
+  </si>
+  <si>
+    <t>protein subunit:approved</t>
+  </si>
+  <si>
+    <t>protein subunit:not approved</t>
+  </si>
+  <si>
+    <t>viral vector:not approved</t>
+  </si>
+  <si>
+    <t>virus-like particles:not approved</t>
+  </si>
+  <si>
+    <t>Approval Status (simple)</t>
+  </si>
+  <si>
+    <t>Product and Approval Details</t>
+  </si>
+  <si>
+    <t>viral vector:approval unknown</t>
+  </si>
+  <si>
+    <t>other:approval unknown</t>
+  </si>
+  <si>
+    <t>Approval Status Unknown</t>
+  </si>
+  <si>
+    <t>Approved (Nirsevimab)</t>
+  </si>
+  <si>
+    <t>Approved (Abrysvo and Arexvy)</t>
+  </si>
+  <si>
+    <t>Approved (mRESVIA)</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -966,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B74C7C1-39D6-4543-AF62-37F03D7DCD25}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2643,35 +2712,273 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B118" t="s">
         <v>174</v>
       </c>
-      <c r="B118" t="s">
-        <v>175</v>
-      </c>
       <c r="D118" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D120" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>200</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" t="s">
+        <v>72</v>
+      </c>
+      <c r="C122" t="s">
+        <v>175</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B124" t="s">
+        <v>100</v>
+      </c>
+      <c r="C124" t="s">
+        <v>201</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" t="s">
+        <v>100</v>
+      </c>
+      <c r="C125" t="s">
+        <v>175</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B127" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" t="s">
+        <v>202</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" t="s">
+        <v>199</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B130" t="s">
+        <v>73</v>
+      </c>
+      <c r="C130" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B131" t="s">
+        <v>97</v>
+      </c>
+      <c r="C131" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B132" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" t="s">
+        <v>175</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B136" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" t="s">
+        <v>199</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B137" t="s">
+        <v>203</v>
+      </c>
+      <c r="C137" t="s">
+        <v>199</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
